--- a/Document/origin_DataIntegrasi.xlsx
+++ b/Document/origin_DataIntegrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E80386-A481-4C44-8BCC-2BE192A3957E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDC944-0060-41C7-AD2E-AA8C0729733F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -194,82 +194,22 @@
     <t>PT Industri Nuklir Indonesia (Persero)</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>ORC001</t>
-  </si>
-  <si>
-    <t>ORC002</t>
-  </si>
-  <si>
-    <t>ORC003</t>
-  </si>
-  <si>
-    <t>Bayer Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>Pfizer Manufacturing</t>
-  </si>
-  <si>
-    <t>Takeda Pharmaceutical</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
-    <t>Amerika Serikat</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>ORC004</t>
-  </si>
-  <si>
-    <t>ORC005</t>
-  </si>
-  <si>
-    <t>ORC006</t>
-  </si>
-  <si>
-    <t>ORC007</t>
-  </si>
-  <si>
-    <t>ORC008</t>
-  </si>
-  <si>
-    <t>ORC009</t>
-  </si>
-  <si>
-    <t>ORC010</t>
-  </si>
-  <si>
-    <t>Cipla Limited</t>
-  </si>
-  <si>
-    <t>Sinopharm Group</t>
-  </si>
-  <si>
     <t>Tiongkok</t>
   </si>
   <si>
-    <t>PT Kalbe Farma</t>
-  </si>
-  <si>
-    <t>PT Dexa Medica</t>
-  </si>
-  <si>
-    <t>PT Mensa Binasukses</t>
-  </si>
-  <si>
-    <t>PT Soho Industri Pharmasi</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>PT Tempo Scan Pacific</t>
+    <t>AutomatedTest01</t>
+  </si>
+  <si>
+    <t>Sinopharm Group Industries</t>
+  </si>
+  <si>
+    <t>AutomatedTest02</t>
+  </si>
+  <si>
+    <t>Takeda Pharmaceutical Industries</t>
   </si>
 </sst>
 </file>
@@ -649,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,149 +645,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
